--- a/uploads/sinter_test.xlsx
+++ b/uploads/sinter_test.xlsx
@@ -56,9 +56,6 @@
     <t>Al2O3_SiO2_Ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">MainFanSpeedRPM </t>
-  </si>
-  <si>
     <t>BTP</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>RDIValue</t>
+  </si>
+  <si>
+    <t>MainFanSpeedRPM</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="B1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,25 +448,25 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>0.76</v>
       </c>
       <c r="L2">
-        <v>797.6</v>
+        <v>797.2</v>
       </c>
       <c r="M2">
         <v>420</v>

--- a/uploads/sinter_test.xlsx
+++ b/uploads/sinter_test.xlsx
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R2"/>
+  <dimension ref="B1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>6.7</v>
       </c>
       <c r="C2">
-        <v>17.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D2">
         <v>3.83</v>
@@ -483,7 +483,7 @@
         <v>10.9</v>
       </c>
       <c r="F2">
-        <v>11.4</v>
+        <v>2.16</v>
       </c>
       <c r="G2">
         <v>89.5</v>
@@ -520,6 +520,112 @@
       </c>
       <c r="R2">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6.7</v>
+      </c>
+      <c r="C3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D3">
+        <v>3.83</v>
+      </c>
+      <c r="E3">
+        <v>10.9</v>
+      </c>
+      <c r="F3">
+        <v>2.16</v>
+      </c>
+      <c r="G3">
+        <v>89.5</v>
+      </c>
+      <c r="H3">
+        <v>90.4</v>
+      </c>
+      <c r="I3">
+        <v>84.33</v>
+      </c>
+      <c r="J3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.76</v>
+      </c>
+      <c r="L3">
+        <v>797.2</v>
+      </c>
+      <c r="M3">
+        <v>420</v>
+      </c>
+      <c r="N3">
+        <v>11.4</v>
+      </c>
+      <c r="O3">
+        <v>1.61</v>
+      </c>
+      <c r="P3">
+        <v>1155.32</v>
+      </c>
+      <c r="Q3">
+        <v>1.75</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>7.06</v>
+      </c>
+      <c r="C4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D4">
+        <v>1.62</v>
+      </c>
+      <c r="E4">
+        <v>11.3</v>
+      </c>
+      <c r="F4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G4">
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <v>89</v>
+      </c>
+      <c r="I4">
+        <v>87</v>
+      </c>
+      <c r="J4">
+        <v>2.29</v>
+      </c>
+      <c r="K4">
+        <v>0.73</v>
+      </c>
+      <c r="L4">
+        <v>876</v>
+      </c>
+      <c r="M4">
+        <v>442</v>
+      </c>
+      <c r="N4">
+        <v>11.32</v>
+      </c>
+      <c r="O4">
+        <v>2.29</v>
+      </c>
+      <c r="P4">
+        <v>1171</v>
+      </c>
+      <c r="Q4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
